--- a/spliced/struggle/2023-03-25_18-15-31/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-31/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.86665141582489</v>
+        <v>-0.1843285858631134</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9056077003479004</v>
+        <v>-2.109012365341187</v>
       </c>
       <c r="C2" t="n">
-        <v>2.72797155380249</v>
+        <v>-1.700190663337708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.430188298225403</v>
+        <v>-0.3310889601707458</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2281174659729</v>
+        <v>-3.295770645141602</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2075414657592773</v>
+        <v>-1.143387079238892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.063363671302795</v>
+        <v>-0.3715587854385376</v>
       </c>
       <c r="B4" t="n">
-        <v>2.087631940841675</v>
+        <v>-2.42528772354126</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9077457785606384</v>
+        <v>-1.059240341186523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.475545048713684</v>
+        <v>-0.6349944472312927</v>
       </c>
       <c r="B5" t="n">
-        <v>2.234697818756104</v>
+        <v>-7.78822660446167</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.367421865463257</v>
+        <v>-1.318247199058533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.275958389043808</v>
+        <v>0.4980078935623169</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1151480972766876</v>
+        <v>-0.0974330082535743</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.477530360221863</v>
+        <v>0.2806925773620605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.403310179710388</v>
+        <v>-0.831234872341156</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.366963744163513</v>
+        <v>2.706896543502808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4318817257881164</v>
+        <v>1.08245325088501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.130823612213135</v>
+        <v>0.7096726894378662</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.414444923400879</v>
+        <v>3.787517309188842</v>
       </c>
       <c r="C8" t="n">
-        <v>1.59512186050415</v>
+        <v>0.2267837226390838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.218842476606369</v>
+        <v>-1.536326050758362</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7496843934059143</v>
+        <v>1.956906795501709</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.522428870201111</v>
+        <v>0.3100140988826751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1843285858631134</v>
+        <v>0.8593347072601318</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.109012365341187</v>
+        <v>7.671703815460205</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.700190663337708</v>
+        <v>1.616807579994202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3310889601707458</v>
+        <v>5.033376693725586</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.295770645141602</v>
+        <v>4.168544292449951</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.143387079238892</v>
+        <v>0.3526219725608825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.3715587854385376</v>
+        <v>-0.6580545902252197</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.42528772354126</v>
+        <v>1.885893702507019</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.059240341186523</v>
+        <v>0.1637118905782699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6349944472312927</v>
+        <v>-2.827084302902222</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.78822660446167</v>
+        <v>-3.540880441665649</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.318247199058533</v>
+        <v>-0.5829181671142578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4980078935623169</v>
+        <v>-1.010065674781799</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0974330082535743</v>
+        <v>-4.767192363739014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2806925773620605</v>
+        <v>-0.09926560521125791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.831234872341156</v>
+        <v>-1.965306162834168</v>
       </c>
       <c r="B15" t="n">
-        <v>2.706896543502808</v>
+        <v>-0.784503698348999</v>
       </c>
       <c r="C15" t="n">
-        <v>1.08245325088501</v>
+        <v>1.217912554740906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7096726894378662</v>
+        <v>-0.3843869566917419</v>
       </c>
       <c r="B16" t="n">
-        <v>3.787517309188842</v>
+        <v>-3.860210180282593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2267837226390838</v>
+        <v>2.725528001785278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.536326050758362</v>
+        <v>4.380514621734619</v>
       </c>
       <c r="B17" t="n">
-        <v>1.956906795501709</v>
+        <v>-3.570049285888672</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3100140988826751</v>
+        <v>1.001513600349426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8593347072601318</v>
+        <v>0.96409809589386</v>
       </c>
       <c r="B18" t="n">
-        <v>7.671703815460205</v>
+        <v>-0.7756461501121521</v>
       </c>
       <c r="C18" t="n">
-        <v>1.616807579994202</v>
+        <v>-0.2683225572109222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.033376693725586</v>
+        <v>-0.6479753255844116</v>
       </c>
       <c r="B19" t="n">
-        <v>4.168544292449951</v>
+        <v>0.6890559792518616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3526219725608825</v>
+        <v>1.091005325317383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.6580545902252197</v>
+        <v>-1.356426239013672</v>
       </c>
       <c r="B20" t="n">
-        <v>1.885893702507019</v>
+        <v>3.433979034423828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1637118905782699</v>
+        <v>-1.384373307228088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.827084302902222</v>
+        <v>0.2755002379417419</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.540880441665649</v>
+        <v>2.776687860488892</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5829181671142578</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-1.010065674781799</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.767192363739014</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.09926560521125791</v>
+        <v>-1.657124638557434</v>
       </c>
     </row>
   </sheetData>
